--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2181142.496708876</v>
+        <v>2178765.869761509</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>245.2444568272728</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>61.18421556648219</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472227</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>194.388223177367</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>346.2805973438298</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.82814756577479</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1111,13 +1111,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>36.29948086284239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>314.6396679854046</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>33.98894749647042</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>50.98074812542857</v>
+        <v>70.33074646471358</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>110.3569086801647</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>95.12712756824077</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805175664</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.970833065919</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>1454.008316125507</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.742617518757</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>709.9543649205125</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>298.9684601309049</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2209.570673130041</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.570673130041</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>281.0354892056661</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>736.6224273402283</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C5" t="n">
-        <v>736.6224273402283</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D5" t="n">
-        <v>736.6224273402283</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E5" t="n">
-        <v>736.6224273402283</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>325.6365225506208</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>313.9721763153137</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.76175931604</v>
+        <v>1627.359273474787</v>
       </c>
       <c r="Y5" t="n">
-        <v>736.6224273402283</v>
+        <v>1277.580892319403</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>134.5663890134813</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>319.2880102945313</v>
+        <v>551.6025748766945</v>
       </c>
       <c r="L6" t="n">
-        <v>613.991567326003</v>
+        <v>846.3061319081662</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.34930177307</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W7" t="n">
-        <v>1087.683159487371</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X7" t="n">
-        <v>1087.683159487371</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y7" t="n">
-        <v>1087.683159487371</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>858.9396732896246</v>
       </c>
       <c r="C8" t="n">
-        <v>745.9401786091678</v>
+        <v>489.9771563492129</v>
       </c>
       <c r="D8" t="n">
-        <v>387.6744800024173</v>
+        <v>489.9771563492129</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251366</v>
+        <v>104.1889037509686</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>97.24340300176515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>85.57905676645808</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872916</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>858.9396732896246</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380219</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694938</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657498</v>
+        <v>376.0561848661681</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378429</v>
+        <v>376.0561848661681</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255072</v>
+        <v>376.0561848661681</v>
       </c>
       <c r="E10" t="n">
-        <v>249.632439243114</v>
+        <v>228.143091283775</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452037</v>
+        <v>228.143091283775</v>
       </c>
       <c r="G10" t="n">
-        <v>102.7424917452037</v>
+        <v>228.143091283775</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>824.8383149077156</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.03939913952</v>
+        <v>596.8487640096982</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959895</v>
+        <v>376.0561848661681</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2152.636624305706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1319.459739407056</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407056</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876679</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,19 +5890,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
         <v>402.7245934908939</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121598</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121598</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121598</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121598</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7263,16 +7263,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,13 +7792,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>319.4183821282439</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.64270034434981</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.18099370047472</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>255.8421700460941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878341</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.0485416471236</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>72.11969353038707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405122</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856017.4546923235</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516051</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731994</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731987</v>
       </c>
-      <c r="J4" t="n">
-        <v>8117.312426731974</v>
-      </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673198</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-746752.2731260229</v>
       </c>
       <c r="C6" t="n">
+        <v>367999.5104498969</v>
+      </c>
+      <c r="D6" t="n">
         <v>367999.5104498966</v>
       </c>
-      <c r="D6" t="n">
-        <v>367999.5104498971</v>
-      </c>
       <c r="E6" t="n">
-        <v>-31543.99909993063</v>
+        <v>-31578.73702536619</v>
       </c>
       <c r="F6" t="n">
-        <v>475941.4425246155</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="G6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.70459918</v>
       </c>
       <c r="H6" t="n">
-        <v>475941.4425246154</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="I6" t="n">
-        <v>475941.4425246154</v>
+        <v>475906.7045991798</v>
       </c>
       <c r="J6" t="n">
-        <v>308336.2647146328</v>
+        <v>308301.5267891972</v>
       </c>
       <c r="K6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="L6" t="n">
-        <v>475941.4425246153</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="M6" t="n">
-        <v>343334.1487956885</v>
+        <v>343299.4108702532</v>
       </c>
       <c r="N6" t="n">
-        <v>475941.4425246154</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="O6" t="n">
-        <v>475941.4425246154</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="P6" t="n">
-        <v>475941.4425246155</v>
+        <v>475906.7045991797</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>281.7336173299009</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>166.3032459456812</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>85.24974708008698</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>106.6303293850384</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>39.95734131222383</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>146.8343127959627</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>250.2235174737486</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>67.29070208685721</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>267.029605065935</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>96.27076102970028</v>
+        <v>76.92076269041526</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,10 +33743,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,25 +34778,25 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>617.098742766094</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>265.322229467882</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>84.16121459139214</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895789</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.914843031319</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>535.6747904601043</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998974</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066202</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
